--- a/regions/3/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
+++ b/regions/3/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>_</t>
   </si>
@@ -239,7 +239,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -547,7 +547,7 @@
     <col min="2" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.25" customHeight="1">
+    <row r="1" spans="1:18" ht="26.25" customHeight="1">
       <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
@@ -566,8 +566,9 @@
       <c r="N1" s="23"/>
       <c r="O1" s="23"/>
       <c r="P1" s="23"/>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="23"/>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -581,7 +582,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" s="3"/>
       <c r="B3" s="21">
         <v>2006</v>
@@ -628,8 +629,14 @@
       <c r="P3" s="22">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="22">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="22">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -678,8 +685,14 @@
       <c r="P4" s="9">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="9">
+        <v>46</v>
+      </c>
+      <c r="R4" s="9">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -728,8 +741,14 @@
       <c r="P5" s="12">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="12">
+        <v>46</v>
+      </c>
+      <c r="R5" s="12">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -778,8 +797,14 @@
       <c r="P6" s="13">
         <v>1216</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="13">
+        <v>1221</v>
+      </c>
+      <c r="R6" s="13">
+        <v>1228.0999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -828,8 +853,14 @@
       <c r="P7" s="13">
         <v>1051</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="13">
+        <v>1103</v>
+      </c>
+      <c r="R7" s="13">
+        <v>951.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -878,8 +909,14 @@
       <c r="P8" s="10">
         <v>646.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="10">
+        <v>693</v>
+      </c>
+      <c r="R8" s="10">
+        <v>926.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -928,8 +965,14 @@
       <c r="P9" s="10">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="10">
+        <v>28.2</v>
+      </c>
+      <c r="R9" s="10">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -978,8 +1021,14 @@
       <c r="P10" s="12">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="12">
+        <v>9.4</v>
+      </c>
+      <c r="R10" s="12">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1077,14 @@
       <c r="P11" s="12">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="12">
+        <v>17.8</v>
+      </c>
+      <c r="R11" s="12">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
@@ -1078,8 +1133,14 @@
       <c r="P12" s="17">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R12" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -1128,8 +1189,14 @@
       <c r="P13" s="10">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="30">
+      <c r="Q13" s="10">
+        <v>28</v>
+      </c>
+      <c r="R13" s="10">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="30">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1178,8 +1245,14 @@
       <c r="P14" s="12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1193,7 +1266,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="A16" s="6" t="s">
         <v>3</v>
       </c>
@@ -1208,7 +1281,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/regions/3/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
+++ b/regions/3/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>_</t>
   </si>
@@ -535,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -547,7 +547,7 @@
     <col min="2" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="26.25" customHeight="1">
+    <row r="1" spans="1:19" ht="26.25" customHeight="1">
       <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
@@ -568,7 +568,7 @@
       <c r="P1" s="23"/>
       <c r="Q1" s="23"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -582,7 +582,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="3"/>
       <c r="B3" s="21">
         <v>2006</v>
@@ -635,8 +635,11 @@
       <c r="R3" s="22">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="22">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -691,8 +694,11 @@
       <c r="R4" s="9">
         <v>51.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="9">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -747,8 +753,11 @@
       <c r="R5" s="12">
         <v>51.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="12">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -803,8 +812,11 @@
       <c r="R6" s="13">
         <v>1228.0999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="13">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -859,8 +871,11 @@
       <c r="R7" s="13">
         <v>951.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="13">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -915,8 +930,11 @@
       <c r="R8" s="10">
         <v>926.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="10">
+        <v>976.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -971,8 +989,11 @@
       <c r="R9" s="10">
         <v>31.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="10">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -1027,8 +1048,11 @@
       <c r="R10" s="12">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="12">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1083,8 +1107,11 @@
       <c r="R11" s="12">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="12">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
@@ -1139,8 +1166,11 @@
       <c r="R12" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -1195,8 +1225,11 @@
       <c r="R13" s="10">
         <v>31.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="30">
+      <c r="S13" s="10">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="30">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1251,8 +1284,11 @@
       <c r="R14" s="12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1266,7 +1302,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" s="6" t="s">
         <v>3</v>
       </c>
